--- a/tests/test_data/test_en.xlsx
+++ b/tests/test_data/test_en.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t xml:space="preserve">Building code</t>
   </si>
@@ -163,16 +163,16 @@
     <t xml:space="preserve">In 1988, a sauna section was planned for the housing association in the basement of the building (Architect Hannu Lehto). In 1994, the building's balconies were designed to be equipped with glass walls that can be moved to the side (architect Tapani Virkkala).</t>
   </si>
   <si>
-    <t xml:space="preserve">The architecture of the building is well thought out and finished. The building has been well preserved in its original condition or the changes made have been successfully adapted to the existing building.</t>
+    <t xml:space="preserve">Reasoning 1 en</t>
   </si>
   <si>
     <t xml:space="preserve">concrete</t>
   </si>
   <si>
-    <t xml:space="preserve">A five-story building with two basement floors and an attic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The building is covered with tin. The facades are light painted splash plaster. The plinth has terrace plastering. The balustrades of the balconies are narrowly grooved aluminum sheets.</t>
+    <t xml:space="preserve">description en 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade en 1</t>
   </si>
   <si>
     <t xml:space="preserve">09103100030009001</t>
@@ -214,10 +214,13 @@
     <t xml:space="preserve">apartment buildings, kindergartens</t>
   </si>
   <si>
-    <t xml:space="preserve">A five-story building with one basement floor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The building is covered with tin. The facades are light brushed concrete.</t>
+    <t xml:space="preserve">kindergartens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description en 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade en 2</t>
   </si>
   <si>
     <t xml:space="preserve">09103100030001001</t>
@@ -241,16 +244,16 @@
     <t xml:space="preserve">In 1996, the building's windows and balcony doors were renewed with wood-aluminum structures (Fenestra Oy).</t>
   </si>
   <si>
-    <t xml:space="preserve">The architecture of the building is well thought out and finished. The building has been partially preserved in its original condition.</t>
+    <t xml:space="preserve">Reasoning 3 en</t>
   </si>
   <si>
     <t xml:space="preserve">brick</t>
   </si>
   <si>
-    <t xml:space="preserve">A five-story building with one basement and an attic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The facades are light brown splash plaster. The concrete plinth is painted brown. The exterior doors are framed with clinker.</t>
+    <t xml:space="preserve">description en 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facade en 3</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,6 +285,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,6 +345,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,14 +427,14 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +669,7 @@
         <v>63</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -669,11 +682,11 @@
       <c r="Z3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>64</v>
+      <c r="AA3" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1" t="n">
@@ -685,13 +698,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -718,19 +731,19 @@
         <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
@@ -740,10 +753,10 @@
         <v>45</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -752,13 +765,13 @@
         <v>48</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="AA4" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="AB4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="n">
